--- a/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
+++ b/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MotivoCierreInte" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Motivo Cierre In" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MotivoCierreInterconsulta</t>
+    <t>Motivo Cierre Interconsulta</t>
   </si>
   <si>
     <t>Status</t>

--- a/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
+++ b/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
+++ b/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
+++ b/docs/ValueSet-VSMotivoCierreInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
